--- a/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_3_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622440.927671383</v>
+        <v>1611725.441886334</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6495115.446408033</v>
+        <v>6495115.446408028</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729599</v>
+        <v>340528.87297296</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -674,10 +674,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>172.6618056911036</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.61808191936537</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -716,7 +716,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -789,7 +789,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>31.0249706398492</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -798,7 +798,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>87.93706369081691</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>7.090912205215136</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>271.2679437234084</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>98.63106271149704</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>19.32753017949271</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>11.44141710884189</v>
       </c>
       <c r="G6" t="n">
-        <v>67.86953338071557</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>166.962413339845</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>401.6975797206587</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>185.8286068973422</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>77.2696787599959</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>379.0511185795227</v>
       </c>
       <c r="F11" t="n">
-        <v>385.6744131770997</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G11" t="n">
-        <v>373.4953065173465</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H11" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498078</v>
       </c>
       <c r="I11" t="n">
-        <v>54.34255030734802</v>
+        <v>54.34255030734805</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>188.8387244638602</v>
       </c>
       <c r="U11" t="n">
-        <v>223.3441920743354</v>
+        <v>223.3441920743355</v>
       </c>
       <c r="V11" t="n">
         <v>315.1934843681346</v>
       </c>
       <c r="W11" t="n">
-        <v>348.7770031074335</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X11" t="n">
-        <v>365.4912691039874</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y11" t="n">
         <v>365.7816115726413</v>
@@ -1528,25 +1528,25 @@
         <v>154.6770145813544</v>
       </c>
       <c r="C13" t="n">
-        <v>138.2367439651511</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7540034815695</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.8391198817651</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>134.4321924149625</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>116.9656858938484</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>84.03689068796756</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.27429639260482</v>
       </c>
       <c r="S13" t="n">
         <v>153.3821556901393</v>
@@ -1582,16 +1582,16 @@
         <v>206.0075568843154</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V13" t="n">
-        <v>192.4820484515759</v>
+        <v>174.1019240360635</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y13" t="n">
         <v>191.3426468763734</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.973273119095</v>
+        <v>374.9732731190949</v>
       </c>
       <c r="C14" t="n">
-        <v>374.877650031113</v>
+        <v>374.8776500311129</v>
       </c>
       <c r="D14" t="n">
-        <v>369.2735958591205</v>
+        <v>369.2735958591204</v>
       </c>
       <c r="E14" t="n">
-        <v>379.0511185795227</v>
+        <v>379.0511185795226</v>
       </c>
       <c r="F14" t="n">
         <v>385.6744131770997</v>
@@ -1622,10 +1622,10 @@
         <v>373.4953065173465</v>
       </c>
       <c r="H14" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498096</v>
       </c>
       <c r="I14" t="n">
-        <v>54.34255030734802</v>
+        <v>54.34255030734795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.7825697050906</v>
+        <v>102.7825697050905</v>
       </c>
       <c r="T14" t="n">
         <v>188.8387244638602</v>
@@ -1664,16 +1664,16 @@
         <v>223.3441920743354</v>
       </c>
       <c r="V14" t="n">
-        <v>315.1934843681346</v>
+        <v>315.1934843681345</v>
       </c>
       <c r="W14" t="n">
         <v>348.7770031074335</v>
       </c>
       <c r="X14" t="n">
-        <v>365.4912691039874</v>
+        <v>365.4912691039873</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.7816115726413</v>
+        <v>365.7816115726412</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.6770145813544</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>49.04210363632403</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>126.7540034815695</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.1560122316141</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>134.4321924149625</v>
+        <v>134.4321924149624</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>84.03689068796756</v>
+        <v>84.03689068796749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.27429639260473</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.3821556901392</v>
       </c>
       <c r="T16" t="n">
-        <v>206.0075568843154</v>
+        <v>206.0075568843153</v>
       </c>
       <c r="U16" t="n">
         <v>248.8244712305875</v>
       </c>
       <c r="V16" t="n">
-        <v>240.0011928611237</v>
+        <v>186.9685720530392</v>
       </c>
       <c r="W16" t="n">
         <v>245.1332730974648</v>
       </c>
       <c r="X16" t="n">
-        <v>204.8147287701639</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.3426468763734</v>
+        <v>191.3426468763733</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.973273119095</v>
+        <v>374.9732731190949</v>
       </c>
       <c r="C17" t="n">
-        <v>374.877650031113</v>
+        <v>374.8776500311129</v>
       </c>
       <c r="D17" t="n">
-        <v>369.2735958591205</v>
+        <v>369.2735958591204</v>
       </c>
       <c r="E17" t="n">
-        <v>379.0511185795227</v>
+        <v>379.0511185795226</v>
       </c>
       <c r="F17" t="n">
-        <v>385.6744131770998</v>
+        <v>385.6744131770997</v>
       </c>
       <c r="G17" t="n">
-        <v>373.4953065173466</v>
+        <v>373.4953065173465</v>
       </c>
       <c r="H17" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498096</v>
       </c>
       <c r="I17" t="n">
-        <v>54.34255030734802</v>
+        <v>54.34255030734796</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.7825697050906</v>
+        <v>102.7825697050905</v>
       </c>
       <c r="T17" t="n">
         <v>188.8387244638602</v>
@@ -1901,16 +1901,16 @@
         <v>223.3441920743354</v>
       </c>
       <c r="V17" t="n">
-        <v>315.1934843681346</v>
+        <v>315.1934843681345</v>
       </c>
       <c r="W17" t="n">
-        <v>348.7770031074336</v>
+        <v>348.7770031074335</v>
       </c>
       <c r="X17" t="n">
-        <v>365.4912691039875</v>
+        <v>365.4912691039873</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.7816115726413</v>
+        <v>365.7816115726412</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.6770145813544</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>60.85473465650983</v>
+        <v>138.236743965151</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.7540034815695</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.1560122316141</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>131.839119881765</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.2742963926048</v>
+        <v>53.27429639260473</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3821556901393</v>
+        <v>153.3821556901392</v>
       </c>
       <c r="T19" t="n">
-        <v>206.0075568843154</v>
+        <v>206.0075568843153</v>
       </c>
       <c r="U19" t="n">
         <v>248.8244712305875</v>
@@ -2062,13 +2062,13 @@
         <v>240.0011928611237</v>
       </c>
       <c r="W19" t="n">
-        <v>245.1332730974648</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>204.8147287701639</v>
+        <v>140.4938715453942</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.3426468763734</v>
+        <v>191.3426468763733</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.973273119095</v>
+        <v>374.9732731190949</v>
       </c>
       <c r="C20" t="n">
-        <v>374.877650031113</v>
+        <v>374.8776500311129</v>
       </c>
       <c r="D20" t="n">
-        <v>369.2735958591205</v>
+        <v>369.2735958591204</v>
       </c>
       <c r="E20" t="n">
-        <v>379.0511185795227</v>
+        <v>379.0511185795226</v>
       </c>
       <c r="F20" t="n">
         <v>385.6744131770997</v>
@@ -2096,10 +2096,10 @@
         <v>373.4953065173465</v>
       </c>
       <c r="H20" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498096</v>
       </c>
       <c r="I20" t="n">
-        <v>54.34255030734802</v>
+        <v>54.34255030734794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.7825697050906</v>
+        <v>102.7825697050905</v>
       </c>
       <c r="T20" t="n">
-        <v>188.8387244638602</v>
+        <v>188.8387244638601</v>
       </c>
       <c r="U20" t="n">
         <v>223.3441920743354</v>
       </c>
       <c r="V20" t="n">
-        <v>315.1934843681336</v>
+        <v>315.1934843681345</v>
       </c>
       <c r="W20" t="n">
         <v>348.7770031074335</v>
       </c>
       <c r="X20" t="n">
-        <v>365.4912691039874</v>
+        <v>365.4912691039873</v>
       </c>
       <c r="Y20" t="n">
-        <v>365.7816115726413</v>
+        <v>365.7816115726412</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>154.6770145813543</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.236743965151</v>
       </c>
       <c r="D22" t="n">
-        <v>124.5169745020916</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.1560122316142</v>
+        <v>128.1560122316141</v>
       </c>
       <c r="F22" t="n">
-        <v>131.8391198817651</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>134.4321924149625</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116.9656858938484</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>84.03689068796756</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3821556901393</v>
+        <v>1.118430542489854</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>206.0075568843153</v>
       </c>
       <c r="U22" t="n">
-        <v>248.8244712305875</v>
+        <v>248.8244712305874</v>
       </c>
       <c r="V22" t="n">
-        <v>240.0011928611237</v>
+        <v>240.0011928611236</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>245.1332730974647</v>
       </c>
       <c r="X22" t="n">
-        <v>204.8147287701639</v>
+        <v>204.8147287701638</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.3426468763734</v>
+        <v>191.3426468763733</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.973273119095</v>
+        <v>374.9732731190949</v>
       </c>
       <c r="C23" t="n">
-        <v>374.877650031113</v>
+        <v>374.8776500311129</v>
       </c>
       <c r="D23" t="n">
-        <v>369.2735958591205</v>
+        <v>369.2735958591204</v>
       </c>
       <c r="E23" t="n">
-        <v>379.0511185795227</v>
+        <v>379.0511185795226</v>
       </c>
       <c r="F23" t="n">
         <v>385.6744131770997</v>
@@ -2333,10 +2333,10 @@
         <v>373.4953065173465</v>
       </c>
       <c r="H23" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498096</v>
       </c>
       <c r="I23" t="n">
-        <v>54.34255030734802</v>
+        <v>54.34255030734794</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>102.7825697050906</v>
+        <v>102.7825697050905</v>
       </c>
       <c r="T23" t="n">
-        <v>188.8387244638602</v>
+        <v>188.8387244638601</v>
       </c>
       <c r="U23" t="n">
         <v>223.3441920743354</v>
       </c>
       <c r="V23" t="n">
-        <v>315.1934843681346</v>
+        <v>315.1934843681345</v>
       </c>
       <c r="W23" t="n">
         <v>348.7770031074335</v>
       </c>
       <c r="X23" t="n">
-        <v>365.4912691039874</v>
+        <v>365.4912691039873</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.7816115726413</v>
+        <v>365.7816115726412</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>154.6770145813543</v>
       </c>
       <c r="C25" t="n">
-        <v>73.39955691189371</v>
+        <v>138.236743965151</v>
       </c>
       <c r="D25" t="n">
-        <v>126.7540034815695</v>
+        <v>126.7540034815694</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>131.8391198817651</v>
+        <v>131.839119881765</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134.4321924149624</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.34289127950592</v>
       </c>
       <c r="S25" t="n">
-        <v>153.3821556901393</v>
+        <v>153.3821556901392</v>
       </c>
       <c r="T25" t="n">
-        <v>206.0075568843154</v>
+        <v>206.0075568843153</v>
       </c>
       <c r="U25" t="n">
-        <v>248.8244712305875</v>
+        <v>248.8244712305874</v>
       </c>
       <c r="V25" t="n">
-        <v>240.0011928611237</v>
+        <v>240.0011928611236</v>
       </c>
       <c r="W25" t="n">
-        <v>245.1332730974648</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>204.8147287701639</v>
+        <v>204.8147287701638</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>184.3243660869963</v>
       </c>
       <c r="U28" t="n">
-        <v>217.5808363123109</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
         <v>241.6479458835353</v>
@@ -2779,7 +2779,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E29" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>161.407547602393</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>165.5139159768163</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>341.4355598753964</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>370.827137031591</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3038,16 +3038,16 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>352.1366999334011</v>
       </c>
       <c r="G32" t="n">
-        <v>369.4447935178239</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>243.116004406111</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364943</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139202</v>
+        <v>69.244856461392</v>
       </c>
       <c r="T32" t="n">
         <v>155.3010112201616</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>189.8064788306368</v>
       </c>
       <c r="V32" t="n">
         <v>281.655771124436</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>315.2392898637349</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>331.9535558602888</v>
       </c>
       <c r="Y32" t="n">
         <v>332.2438983289427</v>
@@ -3190,22 +3190,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787094</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791558</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806651</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.42797265015056</v>
+        <v>83.42797265014977</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426882</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890621</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3241,10 +3241,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U34" t="n">
-        <v>215.286757986889</v>
+        <v>215.2867579868889</v>
       </c>
       <c r="V34" t="n">
-        <v>206.4634796174252</v>
+        <v>206.4634796174251</v>
       </c>
       <c r="W34" t="n">
         <v>211.5955598537662</v>
@@ -3752,13 +3752,13 @@
         <v>352.1366999334012</v>
       </c>
       <c r="G41" t="n">
-        <v>339.9575932736481</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H41" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I41" t="n">
-        <v>20.80483706364949</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.24485646139206</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T41" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U41" t="n">
         <v>189.8064788306369</v>
@@ -3800,7 +3800,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W41" t="n">
-        <v>315.2392898637351</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X41" t="n">
         <v>331.9535558602889</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.1393013376559</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C43" t="n">
-        <v>104.6990307214526</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D43" t="n">
-        <v>93.21629023787099</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E43" t="n">
-        <v>94.61829898791564</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F43" t="n">
-        <v>98.30140663806657</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G43" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H43" t="n">
-        <v>83.42797265014983</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I43" t="n">
-        <v>50.49917744426902</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.73658314890626</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S43" t="n">
-        <v>119.8444424464408</v>
+        <v>119.8444424464407</v>
       </c>
       <c r="T43" t="n">
         <v>172.4698436406168</v>
@@ -3958,10 +3958,10 @@
         <v>206.4634796174252</v>
       </c>
       <c r="W43" t="n">
-        <v>211.5955598537663</v>
+        <v>211.5955598537662</v>
       </c>
       <c r="X43" t="n">
-        <v>171.2770155264654</v>
+        <v>171.2770155264653</v>
       </c>
       <c r="Y43" t="n">
         <v>157.8049336326748</v>
@@ -4153,7 +4153,7 @@
         <v>83.4279726501498</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426859</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.634917978734</v>
+        <v>737.4436435834228</v>
       </c>
       <c r="C2" t="n">
-        <v>1185.550731332408</v>
+        <v>731.359456937097</v>
       </c>
       <c r="D2" t="n">
-        <v>781.0868014254686</v>
+        <v>730.9359310705615</v>
       </c>
       <c r="E2" t="n">
-        <v>770.7869899827693</v>
+        <v>720.6361196278623</v>
       </c>
       <c r="F2" t="n">
-        <v>753.7969819768609</v>
+        <v>703.6461116219539</v>
       </c>
       <c r="G2" t="n">
-        <v>345.0686978696932</v>
+        <v>294.917827514786</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16020049741114</v>
+        <v>120.511963180338</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="K2" t="n">
-        <v>78.09492891931143</v>
+        <v>456.8926816528742</v>
       </c>
       <c r="L2" t="n">
-        <v>78.09492891931143</v>
+        <v>821.9884168700667</v>
       </c>
       <c r="M2" t="n">
-        <v>78.09492891931143</v>
+        <v>1244.72089802553</v>
       </c>
       <c r="N2" t="n">
-        <v>500.8274100747743</v>
+        <v>1667.453379180993</v>
       </c>
       <c r="O2" t="n">
-        <v>923.5598912302371</v>
+        <v>1667.453379180993</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.2923723857</v>
+        <v>1667.453379180993</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.453379180992</v>
+        <v>1667.453379180993</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.010024870557</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="S2" t="n">
-        <v>1677.08266939645</v>
+        <v>1572.728949664659</v>
       </c>
       <c r="T2" t="n">
-        <v>1454.876185343309</v>
+        <v>1350.522465611517</v>
       </c>
       <c r="U2" t="n">
-        <v>1197.815693602819</v>
+        <v>1093.461973871028</v>
       </c>
       <c r="V2" t="n">
-        <v>1197.815693602819</v>
+        <v>743.6244192075083</v>
       </c>
       <c r="W2" t="n">
-        <v>1197.815693602819</v>
+        <v>743.6244192075083</v>
       </c>
       <c r="X2" t="n">
-        <v>1197.815693602819</v>
+        <v>743.6244192075083</v>
       </c>
       <c r="Y2" t="n">
-        <v>1197.815693602819</v>
+        <v>743.6244192075083</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>468.3551805379169</v>
+        <v>464.7595223108524</v>
       </c>
       <c r="C3" t="n">
-        <v>334.3601092868626</v>
+        <v>330.7644510597981</v>
       </c>
       <c r="D3" t="n">
-        <v>334.3601092868626</v>
+        <v>213.8672932791905</v>
       </c>
       <c r="E3" t="n">
         <v>213.8672932791905</v>
@@ -4401,58 +4401,58 @@
         <v>104.9074134616951</v>
       </c>
       <c r="H3" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="J3" t="n">
-        <v>89.96811672018504</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="K3" t="n">
-        <v>512.7005978756479</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="L3" t="n">
-        <v>935.4330790311108</v>
+        <v>456.8926816528742</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.165560186574</v>
+        <v>456.8926816528742</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.165560186574</v>
+        <v>879.6251628083373</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.165560186574</v>
+        <v>1302.3576439638</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.165560186574</v>
+        <v>1328.606040823945</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.010024870557</v>
+        <v>1678.450505507928</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.010024870557</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.020014984866</v>
+        <v>1600.020014984867</v>
       </c>
       <c r="T3" t="n">
-        <v>1568.6816608032</v>
+        <v>1440.678151171875</v>
       </c>
       <c r="U3" t="n">
-        <v>1371.330849941418</v>
+        <v>1243.327340310093</v>
       </c>
       <c r="V3" t="n">
-        <v>1157.619322934452</v>
+        <v>1029.615813303127</v>
       </c>
       <c r="W3" t="n">
-        <v>944.3861546707808</v>
+        <v>940.7904964437162</v>
       </c>
       <c r="X3" t="n">
-        <v>768.0601728096735</v>
+        <v>764.464514582609</v>
       </c>
       <c r="Y3" t="n">
-        <v>608.6582131735036</v>
+        <v>605.062554946439</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.7021415185004</v>
+        <v>481.0942635084585</v>
       </c>
       <c r="C4" t="n">
-        <v>359.7021415185004</v>
+        <v>310.000891070175</v>
       </c>
       <c r="D4" t="n">
-        <v>359.7021415185004</v>
+        <v>150.506246393085</v>
       </c>
       <c r="E4" t="n">
-        <v>198.7913263868199</v>
+        <v>150.506246393085</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16020049741114</v>
+        <v>150.506246393085</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16020049741114</v>
+        <v>150.506246393085</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16020049741114</v>
+        <v>150.506246393085</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24274990262166</v>
+        <v>48.24274990262168</v>
       </c>
       <c r="K4" t="n">
-        <v>202.7950776248596</v>
+        <v>202.7950776248597</v>
       </c>
       <c r="L4" t="n">
         <v>462.6921779049202</v>
@@ -4510,28 +4510,28 @@
         <v>1563.559097118261</v>
       </c>
       <c r="R4" t="n">
-        <v>1563.559097118261</v>
+        <v>1556.396559537236</v>
       </c>
       <c r="S4" t="n">
-        <v>1563.559097118261</v>
+        <v>1556.396559537236</v>
       </c>
       <c r="T4" t="n">
-        <v>1563.559097118261</v>
+        <v>1316.847820513938</v>
       </c>
       <c r="U4" t="n">
-        <v>1289.551073155222</v>
+        <v>1034.049673060062</v>
       </c>
       <c r="V4" t="n">
-        <v>1289.551073155222</v>
+        <v>760.1639279995841</v>
       </c>
       <c r="W4" t="n">
-        <v>1010.481408664097</v>
+        <v>481.0942635084585</v>
       </c>
       <c r="X4" t="n">
-        <v>772.1375465237801</v>
+        <v>481.0942635084585</v>
       </c>
       <c r="Y4" t="n">
-        <v>547.4018479125448</v>
+        <v>481.0942635084585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>575.8898267717317</v>
+        <v>476.6860165660478</v>
       </c>
       <c r="C5" t="n">
-        <v>569.8056401254058</v>
+        <v>470.601829919722</v>
       </c>
       <c r="D5" t="n">
         <v>470.1783040531866</v>
       </c>
       <c r="E5" t="n">
-        <v>55.83808857008327</v>
+        <v>55.83808857008329</v>
       </c>
       <c r="F5" t="n">
-        <v>38.84808056417489</v>
+        <v>38.8480805641749</v>
       </c>
       <c r="G5" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="H5" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="I5" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="J5" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="K5" t="n">
-        <v>34.16020049741114</v>
+        <v>456.8926816528742</v>
       </c>
       <c r="L5" t="n">
-        <v>34.16020049741114</v>
+        <v>879.6251628083373</v>
       </c>
       <c r="M5" t="n">
-        <v>456.892681652874</v>
+        <v>1302.3576439638</v>
       </c>
       <c r="N5" t="n">
-        <v>879.6251628083369</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="O5" t="n">
-        <v>1302.3576439638</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="P5" t="n">
-        <v>1386.849018075265</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="Q5" t="n">
-        <v>1708.010024870557</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="R5" t="n">
-        <v>1708.010024870557</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="S5" t="n">
-        <v>1572.728949664658</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="T5" t="n">
-        <v>1572.728949664658</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="U5" t="n">
-        <v>1315.668457924168</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="V5" t="n">
-        <v>965.8309032606485</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="W5" t="n">
-        <v>582.0706023958171</v>
+        <v>1688.487267113494</v>
       </c>
       <c r="X5" t="n">
-        <v>582.0706023958171</v>
+        <v>1287.843869282447</v>
       </c>
       <c r="Y5" t="n">
-        <v>582.0706023958171</v>
+        <v>886.9071962305372</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554.0631979135572</v>
+        <v>340.3516709065922</v>
       </c>
       <c r="C6" t="n">
-        <v>420.0681266625029</v>
+        <v>340.3516709065922</v>
       </c>
       <c r="D6" t="n">
-        <v>303.1709688818954</v>
+        <v>223.4545131259846</v>
       </c>
       <c r="E6" t="n">
-        <v>303.1709688818954</v>
+        <v>223.4545131259846</v>
       </c>
       <c r="F6" t="n">
-        <v>194.2110890643999</v>
+        <v>211.8975261473564</v>
       </c>
       <c r="G6" t="n">
-        <v>125.6560048414549</v>
+        <v>104.9074134616951</v>
       </c>
       <c r="H6" t="n">
-        <v>54.90879187717097</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="I6" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="J6" t="n">
         <v>226.9730580600444</v>
       </c>
       <c r="K6" t="n">
-        <v>649.7055392155072</v>
+        <v>226.9730580600444</v>
       </c>
       <c r="L6" t="n">
-        <v>649.7055392155072</v>
+        <v>649.7055392155074</v>
       </c>
       <c r="M6" t="n">
+        <v>649.7055392155074</v>
+      </c>
+      <c r="N6" t="n">
         <v>1072.43802037097</v>
       </c>
-      <c r="N6" t="n">
-        <v>1328.606040823944</v>
-      </c>
       <c r="O6" t="n">
-        <v>1328.606040823944</v>
+        <v>1495.170501526434</v>
       </c>
       <c r="P6" t="n">
-        <v>1328.606040823944</v>
+        <v>1495.170501526434</v>
       </c>
       <c r="Q6" t="n">
-        <v>1678.450505507927</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="R6" t="n">
-        <v>1708.010024870557</v>
+        <v>1708.010024870558</v>
       </c>
       <c r="S6" t="n">
-        <v>1600.020014984866</v>
+        <v>1600.020014984867</v>
       </c>
       <c r="T6" t="n">
-        <v>1440.678151171874</v>
+        <v>1440.678151171875</v>
       </c>
       <c r="U6" t="n">
-        <v>1243.327340310092</v>
+        <v>1243.327340310093</v>
       </c>
       <c r="V6" t="n">
-        <v>1243.327340310092</v>
+        <v>1029.615813303127</v>
       </c>
       <c r="W6" t="n">
-        <v>1030.094172046421</v>
+        <v>816.382645039456</v>
       </c>
       <c r="X6" t="n">
-        <v>853.7681901853139</v>
+        <v>640.0566631783488</v>
       </c>
       <c r="Y6" t="n">
-        <v>694.3662305491439</v>
+        <v>480.6547035421788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>952.4006783602642</v>
+        <v>352.4165580554343</v>
       </c>
       <c r="C7" t="n">
-        <v>952.4006783602642</v>
+        <v>183.7676556919545</v>
       </c>
       <c r="D7" t="n">
-        <v>792.9060336831742</v>
+        <v>183.7676556919545</v>
       </c>
       <c r="E7" t="n">
-        <v>631.9952185514937</v>
+        <v>183.7676556919545</v>
       </c>
       <c r="F7" t="n">
-        <v>467.364092662085</v>
+        <v>183.7676556919545</v>
       </c>
       <c r="G7" t="n">
-        <v>300.1137015876284</v>
+        <v>183.7676556919545</v>
       </c>
       <c r="H7" t="n">
-        <v>150.506246393085</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="I7" t="n">
-        <v>34.16020049741114</v>
+        <v>34.16020049741115</v>
       </c>
       <c r="J7" t="n">
-        <v>48.24274990262166</v>
+        <v>48.24274990262168</v>
       </c>
       <c r="K7" t="n">
-        <v>202.7950776248596</v>
+        <v>202.7950776248597</v>
       </c>
       <c r="L7" t="n">
         <v>462.6921779049202</v>
@@ -4756,19 +4756,19 @@
         <v>1052.345871650273</v>
       </c>
       <c r="U7" t="n">
-        <v>952.4006783602642</v>
+        <v>1052.345871650273</v>
       </c>
       <c r="V7" t="n">
-        <v>952.4006783602642</v>
+        <v>778.4601265897952</v>
       </c>
       <c r="W7" t="n">
-        <v>952.4006783602642</v>
+        <v>778.4601265897952</v>
       </c>
       <c r="X7" t="n">
-        <v>952.4006783602642</v>
+        <v>540.1162644494786</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.4006783602642</v>
+        <v>540.1162644494786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763703</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.012242117377</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D8" t="n">
-        <v>1270.588716250842</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E8" t="n">
-        <v>856.2485007677383</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4808,19 +4808,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="M8" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="M8" t="n">
-        <v>1592.293889628578</v>
-      </c>
       <c r="N8" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4829,25 +4829,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1765.267542741534</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1381.507241876703</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
-        <v>1724.070068790184</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>395.6559567680183</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>395.6559567680183</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>236.1613120909283</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4987,25 +4987,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>583.3556631620627</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825243</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.795812864524</v>
+        <v>1949.795812864523</v>
       </c>
       <c r="D11" t="n">
-        <v>1576.792180683594</v>
+        <v>1576.792180683593</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F11" t="n">
-        <v>804.3421486061977</v>
+        <v>804.3421486061967</v>
       </c>
       <c r="G11" t="n">
-        <v>427.0741622250395</v>
+        <v>427.0741622250384</v>
       </c>
       <c r="H11" t="n">
         <v>147.6259625787671</v>
       </c>
       <c r="I11" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J11" t="n">
-        <v>346.9199690896042</v>
+        <v>321.9691657197314</v>
       </c>
       <c r="K11" t="n">
-        <v>885.0794701986438</v>
+        <v>860.128666828771</v>
       </c>
       <c r="L11" t="n">
-        <v>1597.670870010882</v>
+        <v>1572.720066641009</v>
       </c>
       <c r="M11" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632763</v>
       </c>
       <c r="N11" t="n">
-        <v>3127.170477641254</v>
+        <v>3102.219674271381</v>
       </c>
       <c r="O11" t="n">
-        <v>3770.801334058359</v>
+        <v>3745.850530688486</v>
       </c>
       <c r="P11" t="n">
-        <v>4299.95803197751</v>
+        <v>4275.007228607637</v>
       </c>
       <c r="Q11" t="n">
-        <v>4596.16823540293</v>
+        <v>4596.168235402929</v>
       </c>
       <c r="R11" t="n">
-        <v>4636.724881092495</v>
+        <v>4636.724881092494</v>
       </c>
       <c r="S11" t="n">
         <v>4532.904103612605</v>
       </c>
       <c r="T11" t="n">
-        <v>4342.157917285474</v>
+        <v>4342.157917285473</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.557723270994</v>
+        <v>4116.557723270992</v>
       </c>
       <c r="V11" t="n">
-        <v>3798.180466333484</v>
+        <v>3798.180466333483</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.880463194662</v>
+        <v>3445.880463194661</v>
       </c>
       <c r="X11" t="n">
-        <v>3076.697363089625</v>
+        <v>3076.697363089624</v>
       </c>
       <c r="Y11" t="n">
-        <v>2707.220987763725</v>
+        <v>2707.220987763723</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>113.4830890016097</v>
       </c>
       <c r="I12" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J12" t="n">
-        <v>285.5473551844831</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="K12" t="n">
-        <v>741.3536114497819</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.44178336907</v>
+        <v>592.2895222318891</v>
       </c>
       <c r="M12" t="n">
-        <v>2109.66417410972</v>
+        <v>1435.266602926456</v>
       </c>
       <c r="N12" t="n">
-        <v>2109.66417410972</v>
+        <v>1435.266602926456</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.66417410972</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.66417410972</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.66417410972</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R12" t="n">
         <v>2139.22369347235</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>961.8462638409189</v>
+        <v>220.7688445729303</v>
       </c>
       <c r="C13" t="n">
-        <v>822.213189128645</v>
+        <v>220.7688445729303</v>
       </c>
       <c r="D13" t="n">
-        <v>694.1788421775647</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="E13" t="n">
-        <v>564.7283247718938</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="F13" t="n">
-        <v>431.5574966084947</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="G13" t="n">
-        <v>295.7674032600478</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="H13" t="n">
-        <v>177.6202457915141</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="I13" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J13" t="n">
-        <v>137.6512848283225</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K13" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L13" t="n">
-        <v>613.7691884331451</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M13" t="n">
-        <v>933.8674826749004</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N13" t="n">
         <v>1245.540502870413</v>
@@ -5221,28 +5221,28 @@
         <v>1868.807296652796</v>
       </c>
       <c r="R13" t="n">
-        <v>1868.807296652796</v>
+        <v>1814.994876054205</v>
       </c>
       <c r="S13" t="n">
-        <v>1713.875826258716</v>
+        <v>1660.063405660125</v>
       </c>
       <c r="T13" t="n">
-        <v>1505.787384961428</v>
+        <v>1451.974964362837</v>
       </c>
       <c r="U13" t="n">
-        <v>1505.787384961428</v>
+        <v>1200.637114634971</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.361073394179</v>
+        <v>1024.776585305614</v>
       </c>
       <c r="W13" t="n">
-        <v>1311.361073394179</v>
+        <v>777.1672185404977</v>
       </c>
       <c r="X13" t="n">
-        <v>1311.361073394179</v>
+        <v>570.2836541261908</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.085672508954</v>
+        <v>377.008253240965</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5255,25 @@
         <v>2328.460105825245</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.795812864525</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D14" t="n">
-        <v>1576.792180683595</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E14" t="n">
         <v>1193.912262926501</v>
       </c>
       <c r="F14" t="n">
-        <v>804.3421486061984</v>
+        <v>804.342148606198</v>
       </c>
       <c r="G14" t="n">
-        <v>427.0741622250395</v>
+        <v>427.0741622250398</v>
       </c>
       <c r="H14" t="n">
-        <v>147.6259625787671</v>
+        <v>147.625962578767</v>
       </c>
       <c r="I14" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J14" t="n">
         <v>346.9199690896042</v>
@@ -5294,13 +5294,13 @@
         <v>3770.801334058359</v>
       </c>
       <c r="P14" t="n">
-        <v>4275.007228607637</v>
+        <v>4299.95803197751</v>
       </c>
       <c r="Q14" t="n">
-        <v>4596.16823540293</v>
+        <v>4621.119038772802</v>
       </c>
       <c r="R14" t="n">
-        <v>4636.724881092495</v>
+        <v>4636.724881092494</v>
       </c>
       <c r="S14" t="n">
         <v>4532.904103612605</v>
@@ -5309,19 +5309,19 @@
         <v>4342.157917285474</v>
       </c>
       <c r="U14" t="n">
-        <v>4116.557723270993</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V14" t="n">
-        <v>3798.180466333483</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W14" t="n">
-        <v>3445.880463194661</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X14" t="n">
-        <v>3076.697363089624</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y14" t="n">
-        <v>2707.220987763724</v>
+        <v>2707.220987763725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>113.4830890016097</v>
       </c>
       <c r="I15" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J15" t="n">
-        <v>92.7344976218499</v>
+        <v>149.7926652305665</v>
       </c>
       <c r="K15" t="n">
-        <v>92.7344976218499</v>
+        <v>605.5989214958652</v>
       </c>
       <c r="L15" t="n">
-        <v>753.8226695411381</v>
+        <v>1266.687093415153</v>
       </c>
       <c r="M15" t="n">
-        <v>1596.799750235705</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R15" t="n">
         <v>2139.22369347235</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.9478175604903</v>
+        <v>570.895203496712</v>
       </c>
       <c r="C16" t="n">
-        <v>313.410339139961</v>
+        <v>570.895203496712</v>
       </c>
       <c r="D16" t="n">
-        <v>313.410339139961</v>
+        <v>442.8608565456317</v>
       </c>
       <c r="E16" t="n">
-        <v>313.410339139961</v>
+        <v>313.4103391399609</v>
       </c>
       <c r="F16" t="n">
-        <v>313.410339139961</v>
+        <v>313.4103391399609</v>
       </c>
       <c r="G16" t="n">
-        <v>177.6202457915141</v>
+        <v>177.620245791514</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6202457915141</v>
+        <v>177.620245791514</v>
       </c>
       <c r="I16" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J16" t="n">
-        <v>137.6512848283226</v>
+        <v>137.6512848283225</v>
       </c>
       <c r="K16" t="n">
-        <v>323.0378503518227</v>
+        <v>323.0378503518226</v>
       </c>
       <c r="L16" t="n">
-        <v>613.7691884331455</v>
+        <v>613.7691884331451</v>
       </c>
       <c r="M16" t="n">
-        <v>933.8674826749008</v>
+        <v>933.8674826749007</v>
       </c>
       <c r="N16" t="n">
         <v>1245.540502870413</v>
@@ -5455,31 +5455,31 @@
         <v>1772.445029049024</v>
       </c>
       <c r="Q16" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652797</v>
       </c>
       <c r="R16" t="n">
-        <v>1868.807296652796</v>
+        <v>1814.994876054206</v>
       </c>
       <c r="S16" t="n">
-        <v>1868.807296652796</v>
+        <v>1660.063405660126</v>
       </c>
       <c r="T16" t="n">
-        <v>1660.718855355508</v>
+        <v>1451.974964362838</v>
       </c>
       <c r="U16" t="n">
-        <v>1409.381005627642</v>
+        <v>1200.637114634972</v>
       </c>
       <c r="V16" t="n">
-        <v>1166.955558293174</v>
+        <v>1011.779971147053</v>
       </c>
       <c r="W16" t="n">
-        <v>919.3461915280577</v>
+        <v>764.1706043819377</v>
       </c>
       <c r="X16" t="n">
-        <v>712.4626271137507</v>
+        <v>764.1706043819377</v>
       </c>
       <c r="Y16" t="n">
-        <v>519.1872262285251</v>
+        <v>570.895203496712</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2328.460105825244</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.795812864524</v>
+        <v>1949.795812864523</v>
       </c>
       <c r="D17" t="n">
         <v>1576.792180683594</v>
@@ -5501,43 +5501,43 @@
         <v>1193.9122629265</v>
       </c>
       <c r="F17" t="n">
-        <v>804.3421486061975</v>
+        <v>804.3421486061974</v>
       </c>
       <c r="G17" t="n">
         <v>427.0741622250393</v>
       </c>
       <c r="H17" t="n">
-        <v>147.6259625787671</v>
+        <v>147.625962578767</v>
       </c>
       <c r="I17" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J17" t="n">
         <v>346.9199690896042</v>
       </c>
       <c r="K17" t="n">
-        <v>885.0794701986438</v>
+        <v>860.128666828771</v>
       </c>
       <c r="L17" t="n">
-        <v>1597.670870010882</v>
+        <v>1572.720066641009</v>
       </c>
       <c r="M17" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632763</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.170477641254</v>
+        <v>3102.219674271381</v>
       </c>
       <c r="O17" t="n">
-        <v>3770.801334058359</v>
+        <v>3745.850530688486</v>
       </c>
       <c r="P17" t="n">
-        <v>4299.95803197751</v>
+        <v>4275.007228607637</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.119038772802</v>
+        <v>4596.168235402929</v>
       </c>
       <c r="R17" t="n">
-        <v>4636.724881092495</v>
+        <v>4636.724881092494</v>
       </c>
       <c r="S17" t="n">
         <v>4532.904103612605</v>
@@ -5549,16 +5549,16 @@
         <v>4116.557723270993</v>
       </c>
       <c r="V17" t="n">
-        <v>3798.180466333484</v>
+        <v>3798.180466333483</v>
       </c>
       <c r="W17" t="n">
-        <v>3445.880463194662</v>
+        <v>3445.880463194661</v>
       </c>
       <c r="X17" t="n">
-        <v>3076.697363089625</v>
+        <v>3076.697363089624</v>
       </c>
       <c r="Y17" t="n">
-        <v>2707.220987763724</v>
+        <v>2707.220987763723</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>113.4830890016097</v>
       </c>
       <c r="I18" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J18" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="K18" t="n">
-        <v>548.5407538871486</v>
+        <v>384.6962556052699</v>
       </c>
       <c r="L18" t="n">
-        <v>1209.628925806437</v>
+        <v>384.6962556052699</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.628925806437</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.51780098382</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="O18" t="n">
-        <v>1577.51780098382</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.22369347235</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.22369347235</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2039265678192</v>
+        <v>623.0232648542737</v>
       </c>
       <c r="C19" t="n">
-        <v>92.7344976218499</v>
+        <v>483.390190142</v>
       </c>
       <c r="D19" t="n">
-        <v>92.7344976218499</v>
+        <v>355.3558431909197</v>
       </c>
       <c r="E19" t="n">
-        <v>92.7344976218499</v>
+        <v>225.9053257852489</v>
       </c>
       <c r="F19" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="G19" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="H19" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="I19" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J19" t="n">
-        <v>137.6512848283226</v>
+        <v>137.6512848283225</v>
       </c>
       <c r="K19" t="n">
-        <v>323.0378503518227</v>
+        <v>323.0378503518226</v>
       </c>
       <c r="L19" t="n">
-        <v>613.7691884331454</v>
+        <v>613.7691884331452</v>
       </c>
       <c r="M19" t="n">
-        <v>933.8674826749008</v>
+        <v>933.8674826749007</v>
       </c>
       <c r="N19" t="n">
         <v>1245.540502870413</v>
@@ -5701,22 +5701,22 @@
         <v>1660.063405660126</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.974964362837</v>
+        <v>1451.974964362838</v>
       </c>
       <c r="U19" t="n">
-        <v>1200.637114634971</v>
+        <v>1200.637114634972</v>
       </c>
       <c r="V19" t="n">
-        <v>958.2116673005027</v>
+        <v>958.2116673005036</v>
       </c>
       <c r="W19" t="n">
-        <v>710.6023005353866</v>
+        <v>958.2116673005036</v>
       </c>
       <c r="X19" t="n">
-        <v>503.7187361210796</v>
+        <v>816.2986657394994</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.443335235854</v>
+        <v>623.0232648542737</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2328.460105825244</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.795812864524</v>
+        <v>1949.795812864523</v>
       </c>
       <c r="D20" t="n">
         <v>1576.792180683594</v>
@@ -5738,16 +5738,16 @@
         <v>1193.9122629265</v>
       </c>
       <c r="F20" t="n">
-        <v>804.3421486061977</v>
+        <v>804.3421486061976</v>
       </c>
       <c r="G20" t="n">
-        <v>427.0741622250395</v>
+        <v>427.0741622250393</v>
       </c>
       <c r="H20" t="n">
-        <v>147.6259625787671</v>
+        <v>147.625962578767</v>
       </c>
       <c r="I20" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J20" t="n">
         <v>346.9199690896042</v>
@@ -5759,22 +5759,22 @@
         <v>1597.670870010882</v>
       </c>
       <c r="M20" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632763</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.170477641254</v>
+        <v>3102.219674271381</v>
       </c>
       <c r="O20" t="n">
-        <v>3770.801334058359</v>
+        <v>3745.850530688486</v>
       </c>
       <c r="P20" t="n">
-        <v>4299.95803197751</v>
+        <v>4275.007228607637</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.119038772802</v>
+        <v>4596.168235402929</v>
       </c>
       <c r="R20" t="n">
-        <v>4636.724881092495</v>
+        <v>4636.724881092494</v>
       </c>
       <c r="S20" t="n">
         <v>4532.904103612605</v>
@@ -5786,13 +5786,13 @@
         <v>4116.557723270993</v>
       </c>
       <c r="V20" t="n">
-        <v>3798.180466333484</v>
+        <v>3798.180466333483</v>
       </c>
       <c r="W20" t="n">
-        <v>3445.880463194662</v>
+        <v>3445.880463194661</v>
       </c>
       <c r="X20" t="n">
-        <v>3076.697363089625</v>
+        <v>3076.697363089624</v>
       </c>
       <c r="Y20" t="n">
         <v>2707.220987763724</v>
@@ -5826,25 +5826,25 @@
         <v>113.4830890016097</v>
       </c>
       <c r="I21" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J21" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="K21" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="L21" t="n">
         <v>753.8226695411381</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.51780098382</v>
+        <v>1596.799750235705</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.51780098382</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="O21" t="n">
-        <v>1577.51780098382</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="P21" t="n">
         <v>2139.22369347235</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>819.9535638968491</v>
+        <v>361.8180897397945</v>
       </c>
       <c r="C22" t="n">
-        <v>819.9535638968491</v>
+        <v>222.1850150275207</v>
       </c>
       <c r="D22" t="n">
-        <v>694.1788421775647</v>
+        <v>222.1850150275207</v>
       </c>
       <c r="E22" t="n">
-        <v>564.7283247718938</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="F22" t="n">
-        <v>431.5574966084947</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="G22" t="n">
-        <v>295.7674032600478</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="H22" t="n">
-        <v>177.6202457915141</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="I22" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J22" t="n">
         <v>137.6512848283225</v>
       </c>
       <c r="K22" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518226</v>
       </c>
       <c r="L22" t="n">
-        <v>613.7691884331451</v>
+        <v>613.7691884331452</v>
       </c>
       <c r="M22" t="n">
-        <v>933.8674826749004</v>
+        <v>933.8674826749007</v>
       </c>
       <c r="N22" t="n">
         <v>1245.540502870413</v>
@@ -5926,34 +5926,34 @@
         <v>1535.935350998149</v>
       </c>
       <c r="P22" t="n">
-        <v>1772.445029049023</v>
+        <v>1772.445029049024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652797</v>
       </c>
       <c r="R22" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652797</v>
       </c>
       <c r="S22" t="n">
-        <v>1713.875826258716</v>
+        <v>1867.6775688321</v>
       </c>
       <c r="T22" t="n">
-        <v>1713.875826258716</v>
+        <v>1659.589127534812</v>
       </c>
       <c r="U22" t="n">
-        <v>1462.53797653085</v>
+        <v>1408.251277806946</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.112529196382</v>
+        <v>1165.825830472477</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.112529196382</v>
+        <v>918.2164637073616</v>
       </c>
       <c r="X22" t="n">
-        <v>1013.228964782075</v>
+        <v>711.3328992930548</v>
       </c>
       <c r="Y22" t="n">
-        <v>819.9535638968491</v>
+        <v>518.0574984078291</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C23" t="n">
         <v>1949.795812864524</v>
       </c>
       <c r="D23" t="n">
-        <v>1576.792180683595</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F23" t="n">
-        <v>804.342148606198</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G23" t="n">
-        <v>427.0741622250395</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H23" t="n">
-        <v>147.6259625787671</v>
+        <v>147.625962578767</v>
       </c>
       <c r="I23" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J23" t="n">
         <v>346.9199690896042</v>
@@ -5993,10 +5993,10 @@
         <v>885.0794701986438</v>
       </c>
       <c r="L23" t="n">
-        <v>1572.720066641009</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M23" t="n">
-        <v>2349.038657632763</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N23" t="n">
         <v>3102.219674271381</v>
@@ -6008,28 +6008,28 @@
         <v>4275.007228607637</v>
       </c>
       <c r="Q23" t="n">
-        <v>4596.16823540293</v>
+        <v>4596.168235402929</v>
       </c>
       <c r="R23" t="n">
-        <v>4636.724881092495</v>
+        <v>4636.724881092494</v>
       </c>
       <c r="S23" t="n">
         <v>4532.904103612605</v>
       </c>
       <c r="T23" t="n">
-        <v>4342.157917285474</v>
+        <v>4342.157917285473</v>
       </c>
       <c r="U23" t="n">
         <v>4116.557723270993</v>
       </c>
       <c r="V23" t="n">
-        <v>3798.180466333484</v>
+        <v>3798.180466333483</v>
       </c>
       <c r="W23" t="n">
         <v>3445.880463194662</v>
       </c>
       <c r="X23" t="n">
-        <v>3076.697363089625</v>
+        <v>3076.697363089624</v>
       </c>
       <c r="Y23" t="n">
         <v>2707.220987763724</v>
@@ -6063,31 +6063,31 @@
         <v>113.4830890016097</v>
       </c>
       <c r="I24" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J24" t="n">
-        <v>92.7344976218499</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K24" t="n">
-        <v>92.7344976218499</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L24" t="n">
-        <v>753.8226695411381</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.51780098382</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.51780098382</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="O24" t="n">
-        <v>1577.51780098382</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.22369347235</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R24" t="n">
         <v>2139.22369347235</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5311567196705</v>
+        <v>629.3628407970498</v>
       </c>
       <c r="C25" t="n">
-        <v>483.3901901420002</v>
+        <v>489.7297660847761</v>
       </c>
       <c r="D25" t="n">
-        <v>355.3558431909198</v>
+        <v>361.6954191336959</v>
       </c>
       <c r="E25" t="n">
-        <v>225.905325785249</v>
+        <v>361.6954191336959</v>
       </c>
       <c r="F25" t="n">
-        <v>92.7344976218499</v>
+        <v>228.5245909702967</v>
       </c>
       <c r="G25" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="H25" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="I25" t="n">
-        <v>92.7344976218499</v>
+        <v>92.73449762184988</v>
       </c>
       <c r="J25" t="n">
-        <v>137.6512848283225</v>
+        <v>137.6512848283226</v>
       </c>
       <c r="K25" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518227</v>
       </c>
       <c r="L25" t="n">
-        <v>613.7691884331451</v>
+        <v>613.7691884331454</v>
       </c>
       <c r="M25" t="n">
-        <v>933.8674826749004</v>
+        <v>933.8674826749008</v>
       </c>
       <c r="N25" t="n">
         <v>1245.540502870413</v>
@@ -6163,34 +6163,34 @@
         <v>1535.935350998149</v>
       </c>
       <c r="P25" t="n">
-        <v>1772.445029049023</v>
+        <v>1772.445029049024</v>
       </c>
       <c r="Q25" t="n">
-        <v>1868.807296652796</v>
+        <v>1868.807296652797</v>
       </c>
       <c r="R25" t="n">
-        <v>1868.807296652796</v>
+        <v>1849.269022633094</v>
       </c>
       <c r="S25" t="n">
-        <v>1713.875826258716</v>
+        <v>1694.337552239014</v>
       </c>
       <c r="T25" t="n">
-        <v>1505.787384961428</v>
+        <v>1486.249110941726</v>
       </c>
       <c r="U25" t="n">
-        <v>1254.449535233561</v>
+        <v>1234.91126121386</v>
       </c>
       <c r="V25" t="n">
-        <v>1012.024087899093</v>
+        <v>992.4858138793913</v>
       </c>
       <c r="W25" t="n">
-        <v>764.4147211339771</v>
+        <v>992.4858138793913</v>
       </c>
       <c r="X25" t="n">
-        <v>557.5311567196705</v>
+        <v>785.6022494650845</v>
       </c>
       <c r="Y25" t="n">
-        <v>557.5311567196705</v>
+        <v>785.6022494650845</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489457</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6263,10 +6263,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
         <v>2721.037282963096</v>
@@ -6309,22 +6309,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.9936395339932</v>
+        <v>503.1075438309889</v>
       </c>
       <c r="C28" t="n">
-        <v>230.6971779303946</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="D28" t="n">
-        <v>230.6971779303946</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="E28" t="n">
         <v>230.6971779303946</v>
@@ -6391,7 +6391,7 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
         <v>1237.898275478248</v>
@@ -6406,28 +6406,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1646.522384595457</v>
+        <v>1458.017319638046</v>
       </c>
       <c r="U28" t="n">
-        <v>1426.743762057769</v>
+        <v>1205.016083018855</v>
       </c>
       <c r="V28" t="n">
-        <v>1182.654927831976</v>
+        <v>960.9272487930615</v>
       </c>
       <c r="W28" t="n">
-        <v>933.3821741755348</v>
+        <v>711.6544951366207</v>
       </c>
       <c r="X28" t="n">
-        <v>724.8352228699033</v>
+        <v>503.1075438309889</v>
       </c>
       <c r="Y28" t="n">
-        <v>529.8964350933528</v>
+        <v>503.1075438309889</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
         <v>1960.285334281245</v>
@@ -6449,10 +6449,10 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6461,10 +6461,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6476,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6546,19 +6546,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>842.88526785197</v>
+        <v>365.6540635912173</v>
       </c>
       <c r="C31" t="n">
-        <v>701.588806248371</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D31" t="n">
-        <v>571.8910724059659</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E31" t="n">
-        <v>571.8910724059659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>437.056857351242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478248</v>
@@ -6640,31 +6640,31 @@
         <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1856.27421278407</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1856.27421278407</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1612.185378558277</v>
+        <v>1018.412556329841</v>
       </c>
       <c r="W31" t="n">
-        <v>1362.912624901836</v>
+        <v>769.1398026733997</v>
       </c>
       <c r="X31" t="n">
-        <v>1195.72685118788</v>
+        <v>560.5928513677678</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000.78806341133</v>
+        <v>365.6540635912173</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2244.687676845848</v>
+        <v>2244.687676845849</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.563086159118</v>
+        <v>1870.114811157373</v>
       </c>
       <c r="D32" t="n">
-        <v>1430.099156252179</v>
+        <v>1465.650881250434</v>
       </c>
       <c r="E32" t="n">
-        <v>1081.095716519023</v>
+        <v>1116.647441517278</v>
       </c>
       <c r="F32" t="n">
-        <v>725.4020802226586</v>
+        <v>760.9538052209134</v>
       </c>
       <c r="G32" t="n">
-        <v>352.2255211137456</v>
+        <v>352.2255211137455</v>
       </c>
       <c r="H32" t="n">
         <v>106.6537994914111</v>
       </c>
       <c r="I32" t="n">
-        <v>85.63881255843189</v>
+        <v>85.63881255843191</v>
       </c>
       <c r="J32" t="n">
         <v>339.8242840261862</v>
@@ -6704,46 +6704,46 @@
         <v>877.9837851352257</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.575184947464</v>
+        <v>1217.93581347011</v>
       </c>
       <c r="M32" t="n">
-        <v>2366.893775939217</v>
+        <v>1994.254404461864</v>
       </c>
       <c r="N32" t="n">
-        <v>3120.074792577836</v>
+        <v>2747.435421100482</v>
       </c>
       <c r="O32" t="n">
-        <v>3763.70564899494</v>
+        <v>3391.066277517587</v>
       </c>
       <c r="P32" t="n">
-        <v>3920.222975436738</v>
+        <v>3920.222975436739</v>
       </c>
       <c r="Q32" t="n">
-        <v>4241.38398223203</v>
+        <v>4241.383982232031</v>
       </c>
       <c r="R32" t="n">
         <v>4281.940627921595</v>
       </c>
       <c r="S32" t="n">
-        <v>4211.996328465643</v>
+        <v>4211.996328465644</v>
       </c>
       <c r="T32" t="n">
-        <v>4055.12662016245</v>
+        <v>4055.126620162451</v>
       </c>
       <c r="U32" t="n">
-        <v>3863.402904171908</v>
+        <v>3863.402904171909</v>
       </c>
       <c r="V32" t="n">
-        <v>3578.902125258336</v>
+        <v>3578.902125258337</v>
       </c>
       <c r="W32" t="n">
-        <v>3260.478600143452</v>
+        <v>3260.478600143453</v>
       </c>
       <c r="X32" t="n">
         <v>2925.171978062353</v>
       </c>
       <c r="Y32" t="n">
-        <v>2589.57208076039</v>
+        <v>2589.572080760391</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>106.3874039381917</v>
       </c>
       <c r="I33" t="n">
-        <v>85.63881255843189</v>
+        <v>85.63881255843191</v>
       </c>
       <c r="J33" t="n">
-        <v>85.63881255843189</v>
+        <v>278.4516701210651</v>
       </c>
       <c r="K33" t="n">
-        <v>85.63881255843189</v>
+        <v>278.4516701210651</v>
       </c>
       <c r="L33" t="n">
-        <v>85.63881255843189</v>
+        <v>939.5398420403534</v>
       </c>
       <c r="M33" t="n">
-        <v>866.4650253745074</v>
+        <v>1752.724024362318</v>
       </c>
       <c r="N33" t="n">
-        <v>866.4650253745074</v>
+        <v>1752.724024362318</v>
       </c>
       <c r="O33" t="n">
-        <v>1570.422115920402</v>
+        <v>1752.724024362318</v>
       </c>
       <c r="P33" t="n">
-        <v>2132.128008408932</v>
+        <v>1752.724024362318</v>
       </c>
       <c r="Q33" t="n">
-        <v>2132.128008408932</v>
+        <v>2102.568489046302</v>
       </c>
       <c r="R33" t="n">
         <v>2132.128008408932</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>717.6152326099362</v>
+        <v>717.6152326099356</v>
       </c>
       <c r="C34" t="n">
-        <v>611.8586359216004</v>
+        <v>611.8586359215997</v>
       </c>
       <c r="D34" t="n">
-        <v>517.7007669944578</v>
+        <v>517.7007669944574</v>
       </c>
       <c r="E34" t="n">
-        <v>422.1267276127248</v>
+        <v>422.1267276127246</v>
       </c>
       <c r="F34" t="n">
-        <v>322.8323774732636</v>
+        <v>322.8323774732633</v>
       </c>
       <c r="G34" t="n">
-        <v>220.9187621487547</v>
+        <v>220.918762148754</v>
       </c>
       <c r="H34" t="n">
-        <v>136.6480827041581</v>
+        <v>136.648082704158</v>
       </c>
       <c r="I34" t="n">
-        <v>85.63881255843189</v>
+        <v>85.63881255843191</v>
       </c>
       <c r="J34" t="n">
         <v>163.7579358761661</v>
       </c>
       <c r="K34" t="n">
-        <v>382.3468375109278</v>
+        <v>382.3468375109277</v>
       </c>
       <c r="L34" t="n">
-        <v>706.280511703512</v>
+        <v>706.2805117035118</v>
       </c>
       <c r="M34" t="n">
         <v>1059.581142056529</v>
@@ -6871,37 +6871,37 @@
         <v>1404.456498363303</v>
       </c>
       <c r="O34" t="n">
-        <v>1728.053682602301</v>
+        <v>1728.0536826023</v>
       </c>
       <c r="P34" t="n">
-        <v>1997.765696764437</v>
+        <v>1997.765696764436</v>
       </c>
       <c r="Q34" t="n">
-        <v>2127.330300479472</v>
+        <v>2127.330300479471</v>
       </c>
       <c r="R34" t="n">
-        <v>2107.394357904819</v>
+        <v>2107.394357904818</v>
       </c>
       <c r="S34" t="n">
-        <v>1986.339365534677</v>
+        <v>1986.339365534676</v>
       </c>
       <c r="T34" t="n">
-        <v>1812.127402261327</v>
+        <v>1812.127402261326</v>
       </c>
       <c r="U34" t="n">
         <v>1594.666030557398</v>
       </c>
       <c r="V34" t="n">
-        <v>1386.117061246868</v>
+        <v>1386.117061246867</v>
       </c>
       <c r="W34" t="n">
-        <v>1172.38417250569</v>
+        <v>1172.384172505689</v>
       </c>
       <c r="X34" t="n">
-        <v>999.3770861153207</v>
+        <v>999.37708611532</v>
       </c>
       <c r="Y34" t="n">
-        <v>839.978163254033</v>
+        <v>839.9781632540323</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1692974300282</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K35" t="n">
-        <v>703.3287985390677</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L35" t="n">
-        <v>1415.920198351306</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M35" t="n">
-        <v>2192.23878934306</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N35" t="n">
-        <v>2945.419805981678</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O35" t="n">
-        <v>3589.050662398783</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P35" t="n">
-        <v>4118.207360317934</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q35" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R35" t="n">
         <v>4118.207360317934</v>
@@ -7014,25 +7014,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J36" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K36" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="L36" t="n">
-        <v>82.36414720635868</v>
+        <v>936.2651766882802</v>
       </c>
       <c r="M36" t="n">
-        <v>863.1903600224343</v>
+        <v>936.2651766882802</v>
       </c>
       <c r="N36" t="n">
-        <v>863.1903600224343</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O36" t="n">
-        <v>1567.147450568329</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P36" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q36" t="n">
         <v>2128.853343056859</v>
@@ -7072,13 +7072,13 @@
         <v>714.3405672578618</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695259</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606507</v>
       </c>
       <c r="F37" t="n">
         <v>319.5577121211895</v>
@@ -7087,19 +7087,19 @@
         <v>217.6440967966805</v>
       </c>
       <c r="H37" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I37" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240926</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588543</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M37" t="n">
         <v>1056.306476704455</v>
@@ -7114,31 +7114,31 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R37" t="n">
         <v>2104.119692552745</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T37" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U37" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V37" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019586</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2080.954409242187</v>
+        <v>2080.954409242188</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305406</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188925</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7175,25 +7175,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K38" t="n">
-        <v>382.1677917437758</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L38" t="n">
-        <v>1094.759191556014</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M38" t="n">
-        <v>1871.077782547768</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N38" t="n">
-        <v>2624.258799186386</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O38" t="n">
-        <v>3267.889655603491</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P38" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q38" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R38" t="n">
         <v>4118.207360317934</v>
@@ -7205,19 +7205,19 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V38" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W38" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y38" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>743.4523191256469</v>
       </c>
       <c r="M39" t="n">
-        <v>863.1903600224343</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="N39" t="n">
-        <v>863.1903600224343</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="O39" t="n">
-        <v>1567.147450568329</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="P39" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R39" t="n">
         <v>2128.853343056859</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578618</v>
+        <v>714.3405672578619</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695259</v>
+        <v>608.5839705695261</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423834</v>
+        <v>514.4261016423836</v>
       </c>
       <c r="E40" t="n">
         <v>418.8520622606507</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966805</v>
+        <v>217.6440967966806</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520847</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I40" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704455</v>
@@ -7351,31 +7351,31 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2124.055635127397</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R40" t="n">
         <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.064700182602</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U40" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632463</v>
+        <v>996.1024207632465</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019586</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E41" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188926</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616724</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H41" t="n">
-        <v>103.379134139338</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I41" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J41" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K41" t="n">
-        <v>382.1677917437758</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L41" t="n">
-        <v>1094.759191556014</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M41" t="n">
-        <v>1871.077782547768</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N41" t="n">
-        <v>2624.258799186386</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O41" t="n">
-        <v>3267.889655603491</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P41" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q41" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R41" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S41" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T41" t="n">
         <v>3891.393352558789</v>
@@ -7488,28 +7488,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K42" t="n">
-        <v>538.1704034716574</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L42" t="n">
-        <v>1199.258575390946</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="M42" t="n">
-        <v>1199.258575390946</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="N42" t="n">
-        <v>1424.896252510964</v>
+        <v>1537.587931205699</v>
       </c>
       <c r="O42" t="n">
-        <v>2128.853343056859</v>
+        <v>1537.587931205699</v>
       </c>
       <c r="P42" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211898</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G43" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H43" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I43" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588541</v>
       </c>
       <c r="L43" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514383</v>
       </c>
       <c r="M43" t="n">
         <v>1056.306476704455</v>
@@ -7585,13 +7585,13 @@
         <v>1724.779017250227</v>
       </c>
       <c r="P43" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2124.055635127399</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R43" t="n">
-        <v>2104.119692552746</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S43" t="n">
         <v>1983.064700182603</v>
@@ -7600,7 +7600,7 @@
         <v>1808.852736909253</v>
       </c>
       <c r="U43" t="n">
-        <v>1591.391365205325</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V43" t="n">
         <v>1382.842395894794</v>
@@ -7609,10 +7609,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632468</v>
+        <v>996.1024207632465</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.7034979019591</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188926</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616724</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H44" t="n">
         <v>103.3791341393379</v>
@@ -7658,16 +7658,16 @@
         <v>2363.619110587144</v>
       </c>
       <c r="N44" t="n">
-        <v>2624.258799186386</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O44" t="n">
-        <v>3267.889655603491</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P44" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q44" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R44" t="n">
         <v>4118.207360317934</v>
@@ -7688,7 +7688,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7728,22 +7728,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K45" t="n">
-        <v>538.1704034716574</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L45" t="n">
-        <v>1199.258575390946</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="M45" t="n">
-        <v>1199.258575390946</v>
+        <v>925.3412279009253</v>
       </c>
       <c r="N45" t="n">
-        <v>1424.896252510964</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="O45" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="P45" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q45" t="n">
         <v>2128.853343056859</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578617</v>
       </c>
       <c r="C46" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695258</v>
       </c>
       <c r="D46" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606504</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211893</v>
       </c>
       <c r="G46" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966803</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520845</v>
       </c>
       <c r="I46" t="n">
         <v>82.36414720635868</v>
@@ -7810,13 +7810,13 @@
         <v>379.0721721588544</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M46" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O46" t="n">
         <v>1724.779017250227</v>
@@ -7834,22 +7834,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T46" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U46" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019585</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>133.5149032306922</v>
+        <v>516.1388958908566</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>464.2689689893018</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.2927306746849</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9147969742586</v>
+        <v>519.9147969742588</v>
       </c>
       <c r="O2" t="n">
-        <v>520.1922818434224</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.6518694985234</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,31 +8055,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>107.7408713482565</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>482.8282890022546</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1170300284883</v>
+        <v>483.1170300284885</v>
       </c>
       <c r="M3" t="n">
-        <v>484.5667899560567</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>480.1958996113895</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.7539852176395</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>80.7731671847675</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8216,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>516.1388958908566</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>522.4879042804843</v>
       </c>
       <c r="M5" t="n">
-        <v>520.2927306746847</v>
+        <v>520.2927306746849</v>
       </c>
       <c r="N5" t="n">
-        <v>519.9147969742586</v>
+        <v>502.6621704604146</v>
       </c>
       <c r="O5" t="n">
-        <v>520.1922818434224</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>178.9941856156974</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,28 +8295,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>482.8282890022546</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>483.1170300284885</v>
       </c>
       <c r="M6" t="n">
-        <v>484.5667899560567</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>311.9489696088749</v>
+        <v>480.1958996113895</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>484.7539852176395</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>271.6820360241561</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,22 +8456,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>269.4773261669552</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8535,7 +8535,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>394.1192645454833</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8544,16 +8544,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>422.1224761037308</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>304.873761129148</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8708,7 +8708,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.2360300813939</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,22 +8766,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704847</v>
       </c>
       <c r="M12" t="n">
-        <v>771.9303349915994</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8790,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>602.9482466639938</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>103.0756199053214</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>109.0037515360774</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9015,7 +9015,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9027,7 +9027,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389136</v>
+        <v>607.5290136521735</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9185,7 +9185,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>103.0756199053223</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>350.7366494345346</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>424.7983178153492</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9261,7 +9261,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9407,7 +9407,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>852.2475856912688</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9422,7 +9422,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>103.0756199053223</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>889.5795680239547</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9641,13 +9641,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>790.071859115739</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>828.4983647654527</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
@@ -9714,16 +9714,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>889.5795680239547</v>
+        <v>518.9382286752101</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9735,10 +9735,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>846.2776300172818</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>544.8054309767314</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,22 +10194,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>745.8914891781321</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10352,7 +10352,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>438.8712852697988</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
@@ -10364,7 +10364,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>251.747672818053</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10425,31 +10425,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>846.2776300172815</v>
+        <v>878.9624476999981</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>156.9651572158024</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389136</v>
+        <v>94.24904359250789</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10604,10 +10604,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>846.2776300172817</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>337.0699683392701</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10823,7 +10823,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>391.9683538524263</v>
+        <v>351.002045075088</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10844,7 +10844,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>178.5117997957785</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>541.3135869795349</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>391.9683538524263</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>276.7918890560734</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11081,7 +11081,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11148,19 +11148,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>281.1102389695264</v>
+        <v>200.1797552645779</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>356.1847034831256</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11318,7 +11318,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>281.1102389695264</v>
+        <v>915.4839494260225</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>84.03689068796758</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.2742963926048</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>248.8244712305875</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>47.51914440954776</v>
+        <v>65.89926882506026</v>
       </c>
       <c r="W13" t="n">
-        <v>245.1332730974648</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>204.8147287701639</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.6770145813543</v>
       </c>
       <c r="C16" t="n">
-        <v>89.19464032882708</v>
+        <v>138.236743965151</v>
       </c>
       <c r="D16" t="n">
-        <v>126.7540034815695</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8391198817651</v>
+        <v>131.839119881765</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>116.9656858938484</v>
+        <v>116.9656858938483</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.2742963926048</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.3821556901393</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.03262080808446</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>204.8147287701638</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>154.6770145813543</v>
       </c>
       <c r="C19" t="n">
-        <v>77.38200930864127</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7540034815695</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1560122316142</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>131.8391198817651</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.4321924149625</v>
+        <v>134.4321924149624</v>
       </c>
       <c r="H19" t="n">
-        <v>116.9656858938484</v>
+        <v>116.9656858938483</v>
       </c>
       <c r="I19" t="n">
-        <v>84.03689068796756</v>
+        <v>84.03689068796749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>64.32085722476965</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.6770145813544</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.2367439651511</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.237028979477935</v>
+        <v>126.7540034815694</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>131.839119881765</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.4321924149624</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>116.9656858938483</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.03689068796749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.2742963926048</v>
+        <v>53.27429639260472</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.2637251476494</v>
       </c>
       <c r="T22" t="n">
-        <v>206.0075568843154</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>245.1332730974648</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.6770145813544</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>64.8371870532574</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.1560122316141</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.4321924149625</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>116.9656858938484</v>
+        <v>116.9656858938483</v>
       </c>
       <c r="I25" t="n">
-        <v>84.03689068796756</v>
+        <v>84.03689068796749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.2742963926048</v>
+        <v>33.93140511309879</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>245.1332730974647</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.3426468763734</v>
+        <v>191.3426468763733</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041767</v>
@@ -24619,7 +24619,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>23.32994381973049</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89038794068821</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.24039828114235</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>40.94756581575911</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.050093593832571e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723796.7659765232</v>
+        <v>723796.765976523</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723796.7659765232</v>
+        <v>723796.7659765233</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>723796.7659765232</v>
+        <v>723796.7659765233</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723796.7659765232</v>
+        <v>723796.7659765233</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723796.7659765232</v>
+        <v>723796.7659765233</v>
       </c>
     </row>
     <row r="10">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876339</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="C2" t="n">
-        <v>439782.4611876339</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876336</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
+        <v>426829.4933824478</v>
+      </c>
+      <c r="F2" t="n">
+        <v>426829.4933824482</v>
+      </c>
+      <c r="G2" t="n">
         <v>426829.4933824481</v>
       </c>
-      <c r="F2" t="n">
-        <v>426829.493382448</v>
-      </c>
-      <c r="G2" t="n">
-        <v>426829.4933824482</v>
-      </c>
       <c r="H2" t="n">
-        <v>426829.4933824477</v>
+        <v>426829.4933824479</v>
       </c>
       <c r="I2" t="n">
         <v>426829.493382448</v>
       </c>
       <c r="J2" t="n">
-        <v>426193.4828492494</v>
+        <v>426193.4828492493</v>
       </c>
       <c r="K2" t="n">
-        <v>426193.4828492496</v>
+        <v>426193.4828492492</v>
       </c>
       <c r="L2" t="n">
         <v>439782.4611876337</v>
@@ -26350,10 +26350,10 @@
         <v>439782.4611876337</v>
       </c>
       <c r="O2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876336</v>
       </c>
       <c r="P2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876336</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143098.3608911739</v>
+        <v>143098.360891174</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29528.81835765577</v>
+        <v>29528.81835765569</v>
       </c>
       <c r="E3" t="n">
-        <v>215145.8694717669</v>
+        <v>215145.8694717668</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>136987.1614028036</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>28147.57301288811</v>
+        <v>28147.57301288817</v>
       </c>
       <c r="M3" t="n">
-        <v>148571.520521476</v>
+        <v>148571.5205214759</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23599.15338107036</v>
+        <v>23599.15338107031</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203964.8122207713</v>
+        <v>204787.6419674425</v>
       </c>
       <c r="C4" t="n">
-        <v>203964.8122207713</v>
+        <v>204787.6419674425</v>
       </c>
       <c r="D4" t="n">
-        <v>181478.7442691504</v>
+        <v>182412.592019059</v>
       </c>
       <c r="E4" t="n">
-        <v>72273.37975298533</v>
+        <v>73692.6988623759</v>
       </c>
       <c r="F4" t="n">
-        <v>72273.37975298535</v>
+        <v>73692.698862376</v>
       </c>
       <c r="G4" t="n">
-        <v>72273.37975298533</v>
+        <v>73692.698862376</v>
       </c>
       <c r="H4" t="n">
-        <v>72273.37975298539</v>
+        <v>73692.69886237601</v>
       </c>
       <c r="I4" t="n">
-        <v>72273.37975298535</v>
+        <v>73692.698862376</v>
       </c>
       <c r="J4" t="n">
-        <v>70749.17430799872</v>
+        <v>72173.34342526607</v>
       </c>
       <c r="K4" t="n">
-        <v>70749.17430799874</v>
+        <v>72173.34342526601</v>
       </c>
       <c r="L4" t="n">
-        <v>96997.85492424782</v>
+        <v>98349.58934432088</v>
       </c>
       <c r="M4" t="n">
-        <v>103315.2934114074</v>
+        <v>104635.8374335893</v>
       </c>
       <c r="N4" t="n">
-        <v>103315.2934114074</v>
+        <v>104635.8374335893</v>
       </c>
       <c r="O4" t="n">
-        <v>103315.2934114074</v>
+        <v>104635.8374335893</v>
       </c>
       <c r="P4" t="n">
-        <v>103315.2934114074</v>
+        <v>104635.8374335893</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59589.35237803246</v>
+        <v>59589.35237803248</v>
       </c>
       <c r="C5" t="n">
-        <v>59589.35237803246</v>
+        <v>59589.35237803248</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73096.60560443853</v>
+        <v>73096.60560443852</v>
       </c>
       <c r="F5" t="n">
         <v>73096.60560443853</v>
@@ -26497,7 +26497,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>70523.36697092536</v>
+        <v>70523.36697092537</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33129.93569765618</v>
+        <v>32307.1059509848</v>
       </c>
       <c r="C6" t="n">
-        <v>176228.2965888301</v>
+        <v>175405.4668421588</v>
       </c>
       <c r="D6" t="n">
-        <v>163405.83348233</v>
+        <v>162471.9857324214</v>
       </c>
       <c r="E6" t="n">
-        <v>66313.63855325738</v>
+        <v>64846.34548903256</v>
       </c>
       <c r="F6" t="n">
-        <v>281459.5080250241</v>
+        <v>279992.2149607996</v>
       </c>
       <c r="G6" t="n">
-        <v>281459.5080250244</v>
+        <v>279992.2149607996</v>
       </c>
       <c r="H6" t="n">
-        <v>281459.5080250239</v>
+        <v>279992.2149607993</v>
       </c>
       <c r="I6" t="n">
-        <v>281459.5080250241</v>
+        <v>279992.2149607995</v>
       </c>
       <c r="J6" t="n">
-        <v>145111.9903615823</v>
+        <v>143637.4916949134</v>
       </c>
       <c r="K6" t="n">
-        <v>282099.151764386</v>
+        <v>280624.6530977169</v>
       </c>
       <c r="L6" t="n">
-        <v>244113.6662795725</v>
+        <v>242761.9318594993</v>
       </c>
       <c r="M6" t="n">
-        <v>119861.0259514006</v>
+        <v>118540.4819292189</v>
       </c>
       <c r="N6" t="n">
-        <v>268432.5464728765</v>
+        <v>267112.0024506947</v>
       </c>
       <c r="O6" t="n">
-        <v>244833.3930918062</v>
+        <v>243512.8490696242</v>
       </c>
       <c r="P6" t="n">
-        <v>268432.5464728765</v>
+        <v>267112.0024506946</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F2" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="G2" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="H2" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="I2" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="M2" t="n">
         <v>64.68340799244812</v>
@@ -26722,7 +26722,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="O2" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P2" t="n">
         <v>64.68340799244811</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="C4" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1159.181220273124</v>
+        <v>1159.181220273123</v>
       </c>
       <c r="F4" t="n">
-        <v>1159.181220273124</v>
+        <v>1159.181220273123</v>
       </c>
       <c r="G4" t="n">
-        <v>1159.181220273124</v>
+        <v>1159.181220273123</v>
       </c>
       <c r="H4" t="n">
-        <v>1159.181220273124</v>
+        <v>1159.181220273123</v>
       </c>
       <c r="I4" t="n">
-        <v>1159.181220273124</v>
+        <v>1159.181220273123</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633789</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>35.18446626611014</v>
+        <v>35.18446626611021</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633795</v>
+        <v>29.49894172633789</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>95.06106415238634</v>
+        <v>95.06106415238611</v>
       </c>
       <c r="E4" t="n">
-        <v>637.117649903098</v>
+        <v>637.1176499030979</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3675070773005</v>
+        <v>433.3675070773009</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>596.1843330021829</v>
+        <v>596.1843330021827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633789</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>95.06106415238634</v>
+        <v>95.06106415238611</v>
       </c>
       <c r="M4" t="n">
-        <v>637.117649903098</v>
+        <v>637.1176499030979</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.1376067074556</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.3101825344748</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>126.7234745350127</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>123.1637728902176</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27555,7 +27555,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>77.32907893613921</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>8.702222255928689</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>301.788227896373</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>114.6007342743474</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>96.42886391047857</v>
       </c>
       <c r="G6" t="n">
-        <v>38.05067817808911</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>2.420025374055683</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>181.0244246222282</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>15.12252820519058</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27910,16 +27910,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>160.5105722195419</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>70.84170188260201</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="C11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="D11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="E11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="G11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="H11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="T11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="U11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="V11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="W11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="X11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="C13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="D13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="E13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="F13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="G13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="H13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="I13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="J13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="K13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="L13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="M13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="N13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="O13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="P13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="R13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="S13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="T13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="U13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="V13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="W13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="X13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874952</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="C14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="D14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="E14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="F14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="G14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="H14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="I14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="T14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="U14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="V14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="W14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="X14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="C16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="D16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="E16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="F16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="G16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="H16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="I16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="J16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="K16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="L16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="M16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="N16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="O16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="P16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="R16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="S16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="T16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="U16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="V16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="W16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="X16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874962</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="C17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="D17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="E17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="F17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="G17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="H17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="I17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="T17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="U17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="V17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="W17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="X17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="C19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="D19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="E19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="F19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="G19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="H19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="I19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="J19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="K19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="L19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="M19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="N19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="O19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="P19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="R19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="S19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="T19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="U19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="V19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="W19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="X19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.14569474874954</v>
+        <v>31.14569474874961</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="C20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="D20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="E20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="F20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="G20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="H20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="I20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="T20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="U20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="V20" t="n">
-        <v>31.14569474875049</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="W20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="X20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="C22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="D22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="E22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="F22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="G22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="H22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="I22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="J22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="K22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="L22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="M22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="N22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="O22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="P22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="R22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="S22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="T22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="U22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="V22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="W22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="X22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="C23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="D23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="E23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="F23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="G23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="H23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="I23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="T23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="U23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="V23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="W23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="X23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="C25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="D25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="E25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="F25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="G25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="H25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="I25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="J25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="K25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="L25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="M25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="N25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="O25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="P25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="R25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="S25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="T25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="U25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="V25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="W25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="X25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.14569474874955</v>
+        <v>31.14569474874963</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>35.1962077482716</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="G32" t="n">
-        <v>35.19620774827223</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244814</v>
       </c>
     </row>
     <row r="35">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244777</v>
       </c>
       <c r="L43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P43" t="n">
-        <v>64.68340799244882</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.68340799244808</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="44">
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.37851355747504</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>368.783570926457</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>56.37163254825646</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.51353218196375</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="M5" t="n">
-        <v>427.0025062176392</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="N5" t="n">
-        <v>427.0025062176392</v>
+        <v>409.7498797037953</v>
       </c>
       <c r="O5" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>85.34482233481326</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="M6" t="n">
-        <v>427.0025062176392</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>258.7555762151249</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>427.0025062176394</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>214.9894175193174</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5650354103359</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346343</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35264,16 +35264,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>367.8628411009271</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>231.55016979584</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35428,7 +35428,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.2022256822418</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="M12" t="n">
-        <v>714.3660512531819</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.37049212775008</v>
+        <v>45.37049212775005</v>
       </c>
       <c r="K13" t="n">
-        <v>187.2591570944445</v>
+        <v>187.2591570944444</v>
       </c>
       <c r="L13" t="n">
-        <v>293.6680182639623</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M13" t="n">
         <v>323.3316103452074</v>
@@ -35583,10 +35583,10 @@
         <v>293.3281294219557</v>
       </c>
       <c r="P13" t="n">
-        <v>238.898664697853</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.33562384219483</v>
+        <v>97.33562384219481</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>509.2988833831097</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>15.76347709059785</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.63451273607735</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35735,7 +35735,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.37049212775008</v>
+        <v>45.37049212775014</v>
       </c>
       <c r="K16" t="n">
         <v>187.2591570944445</v>
@@ -35811,19 +35811,19 @@
         <v>293.6680182639623</v>
       </c>
       <c r="M16" t="n">
-        <v>323.3316103452074</v>
+        <v>323.3316103452075</v>
       </c>
       <c r="N16" t="n">
-        <v>314.8212325207195</v>
+        <v>314.8212325207196</v>
       </c>
       <c r="O16" t="n">
-        <v>293.3281294219557</v>
+        <v>293.3281294219559</v>
       </c>
       <c r="P16" t="n">
         <v>238.898664697853</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.33562384219483</v>
+        <v>97.33562384219491</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656965</v>
+        <v>518.3926239789564</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35905,7 +35905,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>15.76347709059877</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>294.9108666499192</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>371.6049244215992</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.37049212775007</v>
+        <v>45.37049212775014</v>
       </c>
       <c r="K19" t="n">
         <v>187.2591570944445</v>
       </c>
       <c r="L19" t="n">
-        <v>293.6680182639622</v>
+        <v>293.6680182639623</v>
       </c>
       <c r="M19" t="n">
-        <v>323.3316103452074</v>
+        <v>323.3316103452075</v>
       </c>
       <c r="N19" t="n">
-        <v>314.8212325207195</v>
+        <v>314.8212325207196</v>
       </c>
       <c r="O19" t="n">
-        <v>293.3281294219557</v>
+        <v>293.3281294219559</v>
       </c>
       <c r="P19" t="n">
         <v>238.898664697853</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.33562384219483</v>
+        <v>97.33562384219491</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>758.9573612342233</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36142,7 +36142,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>15.76347709059877</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>832.0152842855373</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.37049212775008</v>
+        <v>45.37049212775015</v>
       </c>
       <c r="K22" t="n">
-        <v>187.2591570944445</v>
+        <v>187.2591570944446</v>
       </c>
       <c r="L22" t="n">
         <v>293.6680182639623</v>
       </c>
       <c r="M22" t="n">
-        <v>323.3316103452074</v>
+        <v>323.3316103452075</v>
       </c>
       <c r="N22" t="n">
-        <v>314.8212325207195</v>
+        <v>314.8212325207196</v>
       </c>
       <c r="O22" t="n">
-        <v>293.3281294219557</v>
+        <v>293.3281294219559</v>
       </c>
       <c r="P22" t="n">
         <v>238.898664697853</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.33562384219483</v>
+        <v>97.33562384219491</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
-        <v>694.5864610528942</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>735.5860740088334</v>
       </c>
       <c r="O23" t="n">
         <v>650.1321781990958</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>832.0152842855373</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.37049212775008</v>
+        <v>45.37049212775015</v>
       </c>
       <c r="K25" t="n">
-        <v>187.2591570944445</v>
+        <v>187.2591570944446</v>
       </c>
       <c r="L25" t="n">
         <v>293.6680182639623</v>
       </c>
       <c r="M25" t="n">
-        <v>323.3316103452074</v>
+        <v>323.3316103452075</v>
       </c>
       <c r="N25" t="n">
-        <v>314.8212325207195</v>
+        <v>314.8212325207196</v>
       </c>
       <c r="O25" t="n">
-        <v>293.3281294219557</v>
+        <v>293.3281294219559</v>
       </c>
       <c r="P25" t="n">
         <v>238.898664697853</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.33562384219483</v>
+        <v>97.33562384219491</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>487.0539519767314</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>688.3272054397147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396343</v>
+        <v>343.385887206954</v>
       </c>
       <c r="M32" t="n">
         <v>784.1601929209636</v>
@@ -37084,7 +37084,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>158.0983095371689</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>788.713346278864</v>
+        <v>821.3981639615806</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144867</v>
       </c>
       <c r="K34" t="n">
-        <v>220.796870338143</v>
+        <v>220.7968703381431</v>
       </c>
       <c r="L34" t="n">
-        <v>327.2057315076608</v>
+        <v>327.2057315076609</v>
       </c>
       <c r="M34" t="n">
         <v>356.869323588906</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>83.64156588249449</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656965</v>
+        <v>5.112653919290765</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37324,10 +37324,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>788.7133462788643</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>283.8765749455201</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>302.8319641792092</v>
+        <v>261.8656554018709</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37564,7 +37564,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>487.0539519767312</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>302.8319641792092</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>181.3064909932286</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37801,7 +37801,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37868,19 +37868,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>227.9168455757764</v>
+        <v>146.9863618708279</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.90820537144862</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K43" t="n">
-        <v>220.796870338143</v>
+        <v>220.7968703381427</v>
       </c>
       <c r="L43" t="n">
-        <v>327.2057315076607</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M43" t="n">
-        <v>356.8693235889059</v>
+        <v>356.869323588906</v>
       </c>
       <c r="N43" t="n">
         <v>348.3589457644181</v>
@@ -37953,7 +37953,7 @@
         <v>326.8658426656543</v>
       </c>
       <c r="P43" t="n">
-        <v>272.4363779415522</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q43" t="n">
         <v>130.8733370858934</v>
@@ -38026,10 +38026,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>263.2724127265063</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38038,7 +38038,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>227.9168455757764</v>
+        <v>862.2905560322725</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
